--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pham/Desktop/lcs-parallel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6F6EE-D27C-544C-ACFB-62E093C5EDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B81C04-7AED-D94B-8716-CBF7FAF3C877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="2880" windowWidth="15880" windowHeight="14640" xr2:uid="{E9A67636-9AD3-9D46-BF16-CF0421C51C29}"/>
+    <workbookView xWindow="12520" yWindow="2880" windowWidth="15880" windowHeight="14640" xr2:uid="{E9A67636-9AD3-9D46-BF16-CF0421C51C29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>8 tasks</t>
   </si>
@@ -65,9 +65,6 @@
     <t>16 sec</t>
   </si>
   <si>
-    <t>Tempo di esecuzione parallela variando il flag di ottimizzazione su un input di 100k charatteri</t>
-  </si>
-  <si>
     <t>11 sec</t>
   </si>
   <si>
@@ -80,19 +77,25 @@
     <t>10 sec</t>
   </si>
   <si>
-    <t xml:space="preserve">Tempo di esecuzione parallela variando dimensione dell'input e numero di processi (ottimizzazione -O3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo di esecuzione sequenziale </t>
-  </si>
-  <si>
     <t>10k chars</t>
   </si>
   <si>
-    <t>Tempo in secondi</t>
-  </si>
-  <si>
     <t>Speedup</t>
+  </si>
+  <si>
+    <t>Time in seconds</t>
+  </si>
+  <si>
+    <t>Sequential execution time</t>
+  </si>
+  <si>
+    <t>Parallel execution time using different optimization flags (input size 100k characters)</t>
+  </si>
+  <si>
+    <t>500k chars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel execution time varying input size and number of processes (-O3 optimization) </t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD39A94C-5BFE-6E44-A85F-E89FD38676FB}">
-  <dimension ref="A4:D24"/>
+  <dimension ref="A4:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="144" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A16" sqref="A16:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,26 +471,29 @@
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -500,8 +506,11 @@
       <c r="D6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -514,8 +523,11 @@
       <c r="D7">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -528,27 +540,33 @@
       <c r="D8">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -561,8 +579,11 @@
       <c r="D12">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -575,8 +596,11 @@
       <c r="D13">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -589,78 +613,96 @@
       <c r="D14">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <f>B12/B6</f>
+        <f t="shared" ref="B17:D19" si="0">B12/B6</f>
         <v>3.9285714285714285E-2</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:D17" si="0">C12/C6</f>
+        <f t="shared" si="0"/>
         <v>2.5789473684210527</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>4.4545454545454541</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <f t="shared" ref="E17" si="1">E12/E6</f>
+        <v>4.7374517374517371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ref="B18:D19" si="1">B13/B7</f>
+        <f t="shared" si="0"/>
         <v>4.8333333333333332E-2</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1578947368421053</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D18:E18" si="2">D13/D7</f>
         <v>6.0439560439560438</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0541871921182269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5909090909090913</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D19:E19" si="3">D14/D8</f>
         <v>10.256410256410257</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>11.744186046511627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -671,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -682,21 +724,21 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
